--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H2">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I2">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J2">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N2">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O2">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P2">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q2">
-        <v>550.2249382960171</v>
+        <v>986.8901716709123</v>
       </c>
       <c r="R2">
-        <v>4952.024444664154</v>
+        <v>8882.011545038209</v>
       </c>
       <c r="S2">
-        <v>0.4994983495511377</v>
+        <v>0.5641084110462813</v>
       </c>
       <c r="T2">
-        <v>0.4994983495511377</v>
+        <v>0.5641084110462815</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H3">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I3">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J3">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.03682</v>
       </c>
       <c r="O3">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P3">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q3">
-        <v>2.309192170306666</v>
+        <v>3.694675381260001</v>
       </c>
       <c r="R3">
-        <v>20.78272953276</v>
+        <v>33.25207843134</v>
       </c>
       <c r="S3">
-        <v>0.00209630207136131</v>
+        <v>0.00211188389395511</v>
       </c>
       <c r="T3">
-        <v>0.00209630207136131</v>
+        <v>0.00211188389395511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H4">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I4">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J4">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N4">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P4">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q4">
-        <v>3.446830008543999</v>
+        <v>3.481957913536001</v>
       </c>
       <c r="R4">
-        <v>31.02147007689599</v>
+        <v>31.337621221824</v>
       </c>
       <c r="S4">
-        <v>0.003129058282568804</v>
+        <v>0.001990294160706061</v>
       </c>
       <c r="T4">
-        <v>0.003129058282568804</v>
+        <v>0.001990294160706061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.401172666666666</v>
+        <v>5.441829000000001</v>
       </c>
       <c r="H5">
-        <v>10.203518</v>
+        <v>16.325487</v>
       </c>
       <c r="I5">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="J5">
-        <v>0.5101677883321655</v>
+        <v>0.5729403216841985</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N5">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P5">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q5">
-        <v>5.996952180763554</v>
+        <v>8.274520481603</v>
       </c>
       <c r="R5">
-        <v>53.97256962687199</v>
+        <v>74.47068433442701</v>
       </c>
       <c r="S5">
-        <v>0.005444078427097666</v>
+        <v>0.004729732583255958</v>
       </c>
       <c r="T5">
-        <v>0.005444078427097667</v>
+        <v>0.004729732583255959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.739604</v>
       </c>
       <c r="I6">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J6">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N6">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O6">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P6">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q6">
-        <v>417.358320271068</v>
+        <v>467.865927688704</v>
       </c>
       <c r="R6">
-        <v>3756.224882439612</v>
+        <v>4210.793349198336</v>
       </c>
       <c r="S6">
-        <v>0.3788810314422324</v>
+        <v>0.2674331071757579</v>
       </c>
       <c r="T6">
-        <v>0.3788810314422324</v>
+        <v>0.267433107175758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.739604</v>
       </c>
       <c r="I7">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J7">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.03682</v>
       </c>
       <c r="O7">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P7">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q7">
         <v>1.75157557992</v>
@@ -883,10 +883,10 @@
         <v>15.76418021928</v>
       </c>
       <c r="S7">
-        <v>0.001590093524284103</v>
+        <v>0.001001204131502511</v>
       </c>
       <c r="T7">
-        <v>0.001590093524284103</v>
+        <v>0.001001204131502511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>7.739604</v>
       </c>
       <c r="I8">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J8">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N8">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P8">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q8">
-        <v>2.614500148032</v>
+        <v>1.650730259712</v>
       </c>
       <c r="R8">
-        <v>23.53050133228799</v>
+        <v>14.856572337408</v>
       </c>
       <c r="S8">
-        <v>0.00237346295660013</v>
+        <v>0.000943560743234016</v>
       </c>
       <c r="T8">
-        <v>0.00237346295660013</v>
+        <v>0.0009435607432340161</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>7.739604</v>
       </c>
       <c r="I9">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="J9">
-        <v>0.3869740471126509</v>
+        <v>0.2716201486343598</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N9">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P9">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q9">
-        <v>4.548826697423999</v>
+        <v>3.922793348675999</v>
       </c>
       <c r="R9">
-        <v>40.939440276816</v>
+        <v>35.305140138084</v>
       </c>
       <c r="S9">
-        <v>0.004129459189534316</v>
+        <v>0.002242276583865347</v>
       </c>
       <c r="T9">
-        <v>0.004129459189534317</v>
+        <v>0.002242276583865348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H10">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I10">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J10">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>161.7750676666667</v>
+        <v>181.3526613333333</v>
       </c>
       <c r="N10">
-        <v>485.325203</v>
+        <v>544.057984</v>
       </c>
       <c r="O10">
-        <v>0.9790864123038654</v>
+        <v>0.9845849379007657</v>
       </c>
       <c r="P10">
-        <v>0.9790864123038654</v>
+        <v>0.984584937900766</v>
       </c>
       <c r="Q10">
-        <v>110.9343407011987</v>
+        <v>267.7447167286614</v>
       </c>
       <c r="R10">
-        <v>998.4090663107881</v>
+        <v>2409.702450557952</v>
       </c>
       <c r="S10">
-        <v>0.1007070313104953</v>
+        <v>0.1530434196787265</v>
       </c>
       <c r="T10">
-        <v>0.1007070313104953</v>
+        <v>0.1530434196787265</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H11">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I11">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J11">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.03682</v>
       </c>
       <c r="O11">
-        <v>0.004109044356199978</v>
+        <v>0.003686045149950483</v>
       </c>
       <c r="P11">
-        <v>0.004109044356199979</v>
+        <v>0.003686045149950484</v>
       </c>
       <c r="Q11">
-        <v>0.4655708840800001</v>
+        <v>1.00237072144</v>
       </c>
       <c r="R11">
-        <v>4.190137956720001</v>
+        <v>9.021336492960002</v>
       </c>
       <c r="S11">
-        <v>0.0004226487605545659</v>
+        <v>0.0005729571244928622</v>
       </c>
       <c r="T11">
-        <v>0.0004226487605545659</v>
+        <v>0.0005729571244928625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H12">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I12">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J12">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.013424</v>
+        <v>0.6398506666666667</v>
       </c>
       <c r="N12">
-        <v>3.040271999999999</v>
+        <v>1.919552</v>
       </c>
       <c r="O12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="P12">
-        <v>0.006133390531766587</v>
+        <v>0.003473824559694892</v>
       </c>
       <c r="Q12">
-        <v>0.694937266368</v>
+        <v>0.9446601678506668</v>
       </c>
       <c r="R12">
-        <v>6.254435397311999</v>
+        <v>8.501941510656</v>
       </c>
       <c r="S12">
-        <v>0.0006308692925976528</v>
+        <v>0.0005399696557548152</v>
       </c>
       <c r="T12">
-        <v>0.0006308692925976525</v>
+        <v>0.0005399696557548154</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6857320000000001</v>
+        <v>1.476376</v>
       </c>
       <c r="H13">
-        <v>2.057196</v>
+        <v>4.429128</v>
       </c>
       <c r="I13">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="J13">
-        <v>0.1028581645551836</v>
+        <v>0.1554395296814417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.763201333333333</v>
+        <v>1.520540333333333</v>
       </c>
       <c r="N13">
-        <v>5.289604</v>
+        <v>4.561621</v>
       </c>
       <c r="O13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588805</v>
       </c>
       <c r="P13">
-        <v>0.01067115280816804</v>
+        <v>0.008255192389588807</v>
       </c>
       <c r="Q13">
-        <v>1.209083576709334</v>
+        <v>2.244889255165333</v>
       </c>
       <c r="R13">
-        <v>10.881752190384</v>
+        <v>20.204003296488</v>
       </c>
       <c r="S13">
-        <v>0.001097615191536058</v>
+        <v>0.001283183222467501</v>
       </c>
       <c r="T13">
-        <v>0.001097615191536058</v>
+        <v>0.001283183222467501</v>
       </c>
     </row>
   </sheetData>
